--- a/output/table3/Table3_ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_ZLB_daily_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1408905.482142857</v>
+        <v>1648615.622222222</v>
       </c>
       <c r="E26" t="n">
-        <v>722565.7672617135</v>
+        <v>513778.5451501935</v>
       </c>
       <c r="F26" t="n">
-        <v>1147783.75</v>
+        <v>1203067</v>
       </c>
       <c r="G26" t="n">
-        <v>1331764</v>
+        <v>1599638</v>
       </c>
       <c r="H26" t="n">
-        <v>1999280.5</v>
+        <v>2061107</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="n">
-        <v>1817571.821428571</v>
+        <v>1779184.377777778</v>
       </c>
       <c r="K26" t="n">
-        <v>824777.264804507</v>
+        <v>608024.46289869</v>
       </c>
       <c r="L26" t="n">
-        <v>1361143</v>
+        <v>1379418</v>
       </c>
       <c r="M26" t="n">
-        <v>1585183</v>
+        <v>1586752</v>
       </c>
       <c r="N26" t="n">
-        <v>2121034.5</v>
+        <v>2211498</v>
       </c>
       <c r="O26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P26" t="n">
-        <v>2084652.767857143</v>
+        <v>1983103.555555556</v>
       </c>
       <c r="Q26" t="n">
-        <v>714855.7498857818</v>
+        <v>449511.9695129251</v>
       </c>
       <c r="R26" t="n">
-        <v>1734050.75</v>
+        <v>1697969</v>
       </c>
       <c r="S26" t="n">
-        <v>1965499</v>
+        <v>1876674</v>
       </c>
       <c r="T26" t="n">
-        <v>2266283.25</v>
+        <v>2260495</v>
       </c>
       <c r="U26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="V26" t="n">
-        <v>2129229.785714286</v>
+        <v>2036725.955555556</v>
       </c>
       <c r="W26" t="n">
-        <v>796912.8030051677</v>
+        <v>703265.3818225365</v>
       </c>
       <c r="X26" t="n">
-        <v>1652604.5</v>
+        <v>1585301</v>
       </c>
       <c r="Y26" t="n">
-        <v>1916246</v>
+        <v>1913355</v>
       </c>
       <c r="Z26" t="n">
-        <v>2486279.5</v>
+        <v>2284986</v>
       </c>
       <c r="AA26" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="n">
-        <v>1959074.58490566</v>
+        <v>1902234.222222222</v>
       </c>
       <c r="AC26" t="n">
-        <v>638586.788887487</v>
+        <v>570076.2847840824</v>
       </c>
       <c r="AD26" t="n">
-        <v>1568200</v>
+        <v>1566242</v>
       </c>
       <c r="AE26" t="n">
-        <v>1804880</v>
+        <v>1771448</v>
       </c>
       <c r="AF26" t="n">
         <v>2323896</v>
       </c>
       <c r="AG26" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>675747.2857142857</v>
+        <v>334487.9333333333</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>267080.9464285714</v>
+        <v>203919.1777777778</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-44577.01785714286</v>
+        <v>-53622.4</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>128118.7547169811</v>
+        <v>80869.33333333333</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_ZLB_daily_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1648615.622222222</v>
+        <v>1489883.127272727</v>
       </c>
       <c r="E26" t="n">
-        <v>513778.5451501935</v>
+        <v>814017.5469703308</v>
       </c>
       <c r="F26" t="n">
-        <v>1203067</v>
+        <v>1066294.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1599638</v>
+        <v>1524449</v>
       </c>
       <c r="H26" t="n">
-        <v>2061107</v>
+        <v>1801151</v>
       </c>
       <c r="I26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J26" t="n">
-        <v>1779184.377777778</v>
+        <v>1927055.218181818</v>
       </c>
       <c r="K26" t="n">
-        <v>608024.46289869</v>
+        <v>651414.9672607484</v>
       </c>
       <c r="L26" t="n">
-        <v>1379418</v>
+        <v>1530795</v>
       </c>
       <c r="M26" t="n">
-        <v>1586752</v>
+        <v>1779357</v>
       </c>
       <c r="N26" t="n">
-        <v>2211498</v>
+        <v>2353539.5</v>
       </c>
       <c r="O26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P26" t="n">
-        <v>1983103.555555556</v>
+        <v>1846542.145454546</v>
       </c>
       <c r="Q26" t="n">
-        <v>449511.9695129251</v>
+        <v>649321.2825192625</v>
       </c>
       <c r="R26" t="n">
-        <v>1697969</v>
+        <v>1398666</v>
       </c>
       <c r="S26" t="n">
-        <v>1876674</v>
+        <v>1792403</v>
       </c>
       <c r="T26" t="n">
-        <v>2260495</v>
+        <v>2294142.5</v>
       </c>
       <c r="U26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V26" t="n">
-        <v>2036725.955555556</v>
+        <v>1677052.036363636</v>
       </c>
       <c r="W26" t="n">
-        <v>703265.3818225365</v>
+        <v>761072.4667900715</v>
       </c>
       <c r="X26" t="n">
-        <v>1585301</v>
+        <v>1382602.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1913355</v>
+        <v>1729023</v>
       </c>
       <c r="Z26" t="n">
-        <v>2284986</v>
+        <v>2221379</v>
       </c>
       <c r="AA26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>1902234.222222222</v>
+        <v>1639643.236363636</v>
       </c>
       <c r="AC26" t="n">
-        <v>570076.2847840824</v>
+        <v>609434.2398397655</v>
       </c>
       <c r="AD26" t="n">
-        <v>1566242</v>
+        <v>1237102</v>
       </c>
       <c r="AE26" t="n">
-        <v>1771448</v>
+        <v>1635165</v>
       </c>
       <c r="AF26" t="n">
-        <v>2323896</v>
+        <v>2005422.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>334487.9333333333</v>
+        <v>356659.0181818182</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>203919.1777777778</v>
+        <v>-80513.07272727272</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-53622.4</v>
+        <v>169490.1090909091</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>80869.33333333333</v>
+        <v>206898.9090909091</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
